--- a/Lab01/Lab01.xlsx
+++ b/Lab01/Lab01.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180FD483-A0A6-4815-A3E1-2A240068B2B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41859E0-75E3-4F85-B0EA-A3A84F16EF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Кол-во интервалов по формуле Стерджесса k</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Округление</t>
+  </si>
+  <si>
+    <t>Таблица с объединенными интервалами</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -315,11 +318,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +375,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,11 +486,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -480,10 +500,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$16:$C$22</c:f>
+              <c:f>Лист1!$R$4:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>18.25</c:v>
                 </c:pt>
@@ -503,17 +523,20 @@
                   <c:v>40.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.5</c:v>
+                  <c:v>45.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$16:$F$22</c:f>
+              <c:f>Лист1!$U$4:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.5555555555555557E-2</c:v>
                 </c:pt>
@@ -533,14 +556,17 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.5555555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4444444444444444E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24A9-4F68-919A-1CA94CF243B4}"/>
+              <c16:uniqueId val="{00000008-4E9A-4D07-83E7-AF8843614D22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -556,6 +582,109 @@
         <c:overlap val="-27"/>
         <c:axId val="897887631"/>
         <c:axId val="897885967"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$R$4:$R$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>18.25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>31.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>36.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40.75</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45.25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>49.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$R$4:$R$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>18.25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>22.75</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>31.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>36.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40.75</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45.25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>49.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-24A9-4F68-919A-1CA94CF243B4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="897887631"/>
@@ -2721,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,7 +2864,7 @@
     <col min="13" max="13" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
@@ -2749,7 +2878,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>28</v>
       </c>
@@ -2780,8 +2909,11 @@
       <c r="J2" s="9">
         <v>32</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>35</v>
       </c>
@@ -2818,8 +2950,26 @@
       <c r="N3" s="4">
         <v>100</v>
       </c>
+      <c r="P3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>27</v>
       </c>
@@ -2857,8 +3007,32 @@
         <f>1+LOG(N3,2)</f>
         <v>7.6438561897747253</v>
       </c>
+      <c r="P4" s="15">
+        <f>B12</f>
+        <v>16</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>P4+$N$8</f>
+        <v>20.5</v>
+      </c>
+      <c r="R4" s="16">
+        <f>(P4+Q4)/2</f>
+        <v>18.25</v>
+      </c>
+      <c r="S4" s="18">
+        <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;P4,$A$2:$J$11,"&lt;"&amp;Q4)</f>
+        <v>7</v>
+      </c>
+      <c r="T4" s="15">
+        <f>S4/$N$3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U4" s="17">
+        <f>T4/$N$8</f>
+        <v>1.5555555555555557E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>29</v>
       </c>
@@ -2896,8 +3070,32 @@
         <f>ROUND(N4,0)</f>
         <v>8</v>
       </c>
+      <c r="P5" s="15">
+        <f>P4+$N$8</f>
+        <v>20.5</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>P5+$N$8</f>
+        <v>25</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" ref="R5:R9" si="0">(P5+Q5)/2</f>
+        <v>22.75</v>
+      </c>
+      <c r="S5" s="18">
+        <f t="shared" ref="S5:S9" si="1">COUNTIFS($A$2:$J$11,"&gt;="&amp;P5,$A$2:$J$11,"&lt;"&amp;Q5)</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="15">
+        <f>S5/$N$3</f>
+        <v>0.17</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" ref="U5:U11" si="2">T5/$N$8</f>
+        <v>3.7777777777777778E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>32</v>
       </c>
@@ -2935,8 +3133,32 @@
         <f>D12-B12</f>
         <v>36</v>
       </c>
+      <c r="P6" s="15">
+        <f>P5+$N$8</f>
+        <v>25</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>P6+$N$8</f>
+        <v>29.5</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="T6" s="15">
+        <f t="shared" ref="T6:T11" si="3">S6/$N$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>24</v>
       </c>
@@ -2974,8 +3196,32 @@
         <f>N6/N5</f>
         <v>4.5</v>
       </c>
+      <c r="P7" s="15">
+        <f t="shared" ref="P7:P10" si="4">P6+$N$8</f>
+        <v>29.5</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" ref="Q7:Q9" si="5">P7+$N$8</f>
+        <v>34</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" si="0"/>
+        <v>31.75</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T7" s="15">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="U7" s="17">
+        <f t="shared" si="2"/>
+        <v>3.5555555555555556E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>44</v>
       </c>
@@ -3013,8 +3259,32 @@
         <f>_xlfn.CEILING.MATH(N7,0.1)</f>
         <v>4.5</v>
       </c>
+      <c r="P8" s="15">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="5"/>
+        <v>38.5</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="U8" s="17">
+        <f t="shared" si="2"/>
+        <v>3.7777777777777778E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>23</v>
       </c>
@@ -3046,8 +3316,32 @@
         <v>32</v>
       </c>
       <c r="N9" s="4"/>
+      <c r="P9" s="15">
+        <f t="shared" si="4"/>
+        <v>38.5</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" si="0"/>
+        <v>40.75</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>20</v>
       </c>
@@ -3082,8 +3376,32 @@
         <v>14</v>
       </c>
       <c r="N10" s="4"/>
+      <c r="P10" s="34">
+        <f>P9+$N$8</f>
+        <v>43</v>
+      </c>
+      <c r="Q10" s="34">
+        <f>P10+$N$8</f>
+        <v>47.5</v>
+      </c>
+      <c r="R10" s="35">
+        <f>(P10+Q10)/2</f>
+        <v>45.25</v>
+      </c>
+      <c r="S10" s="36">
+        <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;P10,$A$2:$J$11,"&lt;="&amp;Q10)</f>
+        <v>7</v>
+      </c>
+      <c r="T10" s="34">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U10" s="33">
+        <f t="shared" si="2"/>
+        <v>1.5555555555555557E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>44</v>
       </c>
@@ -3118,11 +3436,35 @@
         <v>15</v>
       </c>
       <c r="N11" s="6">
-        <f>SUMPRODUCT(C16:C22,D16:D22)/100</f>
-        <v>31.142499999999998</v>
+        <f>SUMPRODUCT(R4:R11,S4:S11)/100</f>
+        <v>31.03</v>
+      </c>
+      <c r="P11" s="15">
+        <f>P10+$N$8</f>
+        <v>47.5</v>
+      </c>
+      <c r="Q11" s="15">
+        <f>P11+$N$8</f>
+        <v>52</v>
+      </c>
+      <c r="R11" s="16">
+        <f>(P11+Q11)/2</f>
+        <v>49.75</v>
+      </c>
+      <c r="S11" s="18">
+        <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;P11,$A$2:$J$11,"&lt;="&amp;Q11)</f>
+        <v>2</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="2"/>
+        <v>4.4444444444444444E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
@@ -3141,29 +3483,37 @@
         <v>16</v>
       </c>
       <c r="N12" s="4"/>
+      <c r="S12">
+        <f>SUM(S4:S11)</f>
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <f>SUM(T4:T11)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="M13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="5">
-        <f>SUMPRODUCT(C16:C22,C16:C22,D16:D22)/100-N11*N11</f>
-        <v>64.279068750000192</v>
+        <f>SUMPRODUCT(R4:R11,R4:R11,S4:S11)/100-N11*N11</f>
+        <v>61.041600000000017</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="5">
         <f>N13*100/99</f>
-        <v>64.928352272727466</v>
+        <v>61.658181818181838</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -3176,22 +3526,18 @@
       <c r="D15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="M15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="6">
         <f>SQRT(N14)</f>
-        <v>8.0578131197445551</v>
+        <v>7.8522723983686298</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <f>B12</f>
         <v>16</v>
@@ -3208,14 +3554,8 @@
         <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;A16,$A$2:$J$11,"&lt;"&amp;B16)</f>
         <v>7</v>
       </c>
-      <c r="E16" s="15">
-        <f>D16/$N$3</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F16" s="17">
-        <f>E16/$N$8</f>
-        <v>1.5555555555555557E-2</v>
-      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3228,21 +3568,15 @@
         <v>25</v>
       </c>
       <c r="C17" s="16">
-        <f t="shared" ref="C17:C22" si="0">(A17+B17)/2</f>
+        <f t="shared" ref="C17:C22" si="6">(A17+B17)/2</f>
         <v>22.75</v>
       </c>
       <c r="D17" s="18">
-        <f t="shared" ref="D17:D22" si="1">COUNTIFS($A$2:$J$11,"&gt;="&amp;A17,$A$2:$J$11,"&lt;"&amp;B17)</f>
+        <f t="shared" ref="D17:D21" si="7">COUNTIFS($A$2:$J$11,"&gt;="&amp;A17,$A$2:$J$11,"&lt;"&amp;B17)</f>
         <v>17</v>
       </c>
-      <c r="E17" s="15">
-        <f>D17/$N$3</f>
-        <v>0.17</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" ref="F17:F22" si="2">E17/$N$8</f>
-        <v>3.7777777777777778E-2</v>
-      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3255,107 +3589,83 @@
         <v>29.5</v>
       </c>
       <c r="C18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>27.25</v>
       </c>
       <c r="D18" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="E18" s="15">
-        <f t="shared" ref="E18:E22" si="3">D18/$N$3</f>
-        <v>0.25</v>
-      </c>
-      <c r="F18" s="17">
-        <f t="shared" si="2"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <f t="shared" ref="A19:A22" si="4">A18+$N$8</f>
+        <f t="shared" ref="A19:A22" si="8">A18+$N$8</f>
         <v>29.5</v>
       </c>
       <c r="B19" s="15">
-        <f t="shared" ref="B19:B21" si="5">A19+$N$8</f>
+        <f t="shared" ref="B19:B21" si="9">A19+$N$8</f>
         <v>34</v>
       </c>
       <c r="C19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31.75</v>
       </c>
       <c r="D19" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="E19" s="15">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
-      </c>
-      <c r="F19" s="17">
-        <f t="shared" si="2"/>
-        <v>3.5555555555555556E-2</v>
-      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>38.5</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>36.25</v>
       </c>
       <c r="D20" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="3"/>
-        <v>0.17</v>
-      </c>
-      <c r="F20" s="17">
-        <f t="shared" si="2"/>
-        <v>3.7777777777777778E-2</v>
-      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>38.5</v>
       </c>
       <c r="B21" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="C21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40.75</v>
       </c>
       <c r="D21" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="3"/>
-        <v>0.09</v>
-      </c>
-      <c r="F21" s="17">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="B22" s="15">
@@ -3363,21 +3673,15 @@
         <v>52</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
       <c r="D22" s="18">
         <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;A22,$A$2:$J$11,"&lt;="&amp;B22)</f>
         <v>9</v>
       </c>
-      <c r="E22" s="15">
-        <f t="shared" si="3"/>
-        <v>0.09</v>
-      </c>
-      <c r="F22" s="17">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -3385,10 +3689,7 @@
         <f>SUM(D16:D22)</f>
         <v>100</v>
       </c>
-      <c r="E23" s="3">
-        <f>SUM(E16:E22)</f>
-        <v>1</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
     </row>
@@ -3436,263 +3737,263 @@
         <v>-9.9999999999999995E+36</v>
       </c>
       <c r="B28" s="22">
-        <f t="shared" ref="B28:B33" si="6">B16</f>
+        <f t="shared" ref="B28:B33" si="10">B16</f>
         <v>20.5</v>
       </c>
       <c r="C28" s="22">
-        <f t="shared" ref="C28:C34" si="7">D16</f>
+        <f t="shared" ref="C28:C34" si="11">D16</f>
         <v>7</v>
       </c>
       <c r="D28" s="1">
         <f>_xlfn.NORM.DIST(B28,$N$11,$N$15,TRUE)</f>
-        <v>9.3289401889542795E-2</v>
+        <v>8.995810282095773E-2</v>
       </c>
       <c r="E28" s="1">
         <f>$N$3*D28</f>
-        <v>9.3289401889542791</v>
+        <v>8.995810282095773</v>
       </c>
       <c r="F28" s="1">
         <f>C28-$N$3*D28</f>
-        <v>-2.3289401889542791</v>
+        <v>-1.995810282095773</v>
       </c>
       <c r="G28" s="1">
         <f>POWER(F28,2)</f>
-        <v>5.4239624037263932</v>
+        <v>3.9832586821192093</v>
       </c>
       <c r="H28" s="1">
         <f>G28/E28</f>
-        <v>0.58141249636786319</v>
+        <v>0.44279042767798577</v>
       </c>
       <c r="I28" s="1">
         <f>(POWER(C28,2))/E28</f>
-        <v>5.2524723074135844</v>
+        <v>5.4469801455822129</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
-        <f t="shared" ref="A29:A34" si="8">A17</f>
+        <f t="shared" ref="A29:A34" si="12">A17</f>
         <v>20.5</v>
       </c>
       <c r="B29" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="C29" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="D29" s="1">
         <f>_xlfn.NORM.DIST(B29,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A29,$N$11,$N$15,TRUE)</f>
-        <v>0.12965000912929223</v>
+        <v>0.13130611515218205</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E34" si="9">$N$3*D29</f>
-        <v>12.965000912929222</v>
+        <f t="shared" ref="E29:E34" si="13">$N$3*D29</f>
+        <v>13.130611515218204</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ref="F29:F34" si="10">C29-$N$3*D29</f>
-        <v>4.0349990870707781</v>
+        <f t="shared" ref="F29:F34" si="14">C29-$N$3*D29</f>
+        <v>3.8693884847817959</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:G34" si="11">POWER(F29,2)</f>
-        <v>16.281217632662013</v>
+        <f t="shared" ref="G29:G34" si="15">POWER(F29,2)</f>
+        <v>14.972167246161963</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:H34" si="12">G29/E29</f>
-        <v>1.2557822203024858</v>
+        <f t="shared" ref="H29:H34" si="16">G29/E29</f>
+        <v>1.1402490454316938</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ref="I29:I34" si="13">(POWER(C29,2))/E29</f>
-        <v>22.290781307373265</v>
+        <f t="shared" ref="I29:I34" si="17">(POWER(C29,2))/E29</f>
+        <v>22.009637530213489</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="B30" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>29.5</v>
       </c>
       <c r="C30" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30:D34" si="14">_xlfn.NORM.DIST(B30,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A30,$N$11,$N$15,TRUE)</f>
-        <v>0.19630008009375721</v>
+        <f t="shared" ref="D30:D34" si="18">_xlfn.NORM.DIST(B30,$N$11,$N$15,TRUE)-_xlfn.NORM.DIST(A30,$N$11,$N$15,TRUE)</f>
+        <v>0.2014917326107869</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="9"/>
-        <v>19.630008009375722</v>
+        <f t="shared" si="13"/>
+        <v>20.14917326107869</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="10"/>
-        <v>5.3699919906242783</v>
+        <f t="shared" si="14"/>
+        <v>4.8508267389213096</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="11"/>
-        <v>28.836813979368898</v>
+        <f t="shared" si="15"/>
+        <v>23.530520051033946</v>
       </c>
       <c r="H30" s="1">
         <f>G30/E30</f>
-        <v>1.4690169237626294</v>
+        <v>1.1678156590417961</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="13"/>
-        <v>31.839008914386909</v>
+        <f t="shared" si="17"/>
+        <v>31.018642397963106</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>29.5</v>
       </c>
       <c r="B31" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C31" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="D31" s="1">
+        <f t="shared" si="18"/>
+        <v>0.22461583480329583</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="13"/>
+        <v>22.461583480329583</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="14"/>
-        <v>0.2193251446425511</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="9"/>
-        <v>21.93251446425511</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="10"/>
-        <v>-5.9325144642551102</v>
+        <v>-6.4615834803295833</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="11"/>
-        <v>35.194727868596097</v>
+        <f t="shared" si="15"/>
+        <v>41.752061073268173</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="12"/>
-        <v>1.6046827611104648</v>
+        <f t="shared" si="16"/>
+        <v>1.8588209112608627</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="13"/>
-        <v>11.672168296855354</v>
+        <f t="shared" si="17"/>
+        <v>11.397237430931279</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="B32" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>38.5</v>
       </c>
       <c r="C32" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="D32" s="1">
+        <f t="shared" si="18"/>
+        <v>0.18190646760964513</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="13"/>
+        <v>18.190646760964512</v>
+      </c>
+      <c r="F32" s="1">
         <f t="shared" si="14"/>
-        <v>0.18083747958382923</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="9"/>
-        <v>18.083747958382922</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="10"/>
-        <v>-1.0837479583829221</v>
+        <v>-1.1906467609645119</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="11"/>
-        <v>1.1745096372991519</v>
+        <f t="shared" si="15"/>
+        <v>1.4176397093952837</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="12"/>
-        <v>6.4948352520844271E-2</v>
+        <f t="shared" si="16"/>
+        <v>7.7932342264894663E-2</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="13"/>
-        <v>15.981200394137922</v>
+        <f t="shared" si="17"/>
+        <v>15.887285581300382</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>38.5</v>
       </c>
       <c r="B33" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="C33" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="D33" s="1">
+        <f t="shared" si="18"/>
+        <v>0.10701727265906869</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="13"/>
+        <v>10.701727265906868</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="14"/>
-        <v>0.11002708756141133</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="9"/>
-        <v>11.002708756141132</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="10"/>
-        <v>-2.0027087561411321</v>
+        <v>-1.7017272659068681</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="11"/>
-        <v>4.0108423619243601</v>
+        <f t="shared" si="15"/>
+        <v>2.8958756875308644</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="12"/>
-        <v>0.36453226662804461</v>
+        <f t="shared" si="16"/>
+        <v>0.27059890572584749</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="13"/>
-        <v>7.3618235104869125</v>
+        <f t="shared" si="17"/>
+        <v>7.5688716398189797</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="B34" s="21">
         <v>10000000000</v>
       </c>
       <c r="C34" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="D34" s="1">
+        <f t="shared" si="18"/>
+        <v>6.3704474344063677E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="13"/>
+        <v>6.3704474344063673</v>
+      </c>
+      <c r="F34" s="1">
         <f t="shared" si="14"/>
-        <v>7.0570797099616112E-2</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="9"/>
-        <v>7.0570797099616112</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9429202900383888</v>
+        <v>2.6295525655936327</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="11"/>
-        <v>3.7749392534428572</v>
+        <f t="shared" si="15"/>
+        <v>6.9145466952200563</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="12"/>
-        <v>0.53491520693952765</v>
+        <f t="shared" si="16"/>
+        <v>1.0854098972507087</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="13"/>
-        <v>11.477835496977917</v>
+        <f t="shared" si="17"/>
+        <v>12.714962462844342</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3721,7 +4022,7 @@
       </c>
       <c r="E36" s="24">
         <f>SUM(E28:E34)</f>
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
@@ -3729,11 +4030,11 @@
       </c>
       <c r="H36" s="26">
         <f>SUM(H28:H34)</f>
-        <v>5.8752902276318588</v>
+        <v>6.0436171886537888</v>
       </c>
       <c r="I36" s="23">
         <f>SUM(I28:I34)</f>
-        <v>105.87529022763187</v>
+        <v>106.0436171886538</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">

--- a/Lab01/Lab01.xlsx
+++ b/Lab01/Lab01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41859E0-75E3-4F85-B0EA-A3A84F16EF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857F7BE-28C2-4DD5-A581-156944B049C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
     <t>Округление</t>
   </si>
   <si>
-    <t>Таблица с объединенными интервалами</t>
+    <t>Таблица с объединенными интервалами (для критерия Пирсона)</t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,16 +369,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2852,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2865,16 +2866,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -3197,7 +3198,7 @@
         <v>4.5</v>
       </c>
       <c r="P7" s="15">
-        <f t="shared" ref="P7:P10" si="4">P6+$N$8</f>
+        <f t="shared" ref="P7:P9" si="4">P6+$N$8</f>
         <v>29.5</v>
       </c>
       <c r="Q7" s="15">
@@ -3376,27 +3377,27 @@
         <v>14</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="P10" s="34">
+      <c r="P10" s="32">
         <f>P9+$N$8</f>
         <v>43</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="32">
         <f>P10+$N$8</f>
         <v>47.5</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="33">
         <f>(P10+Q10)/2</f>
         <v>45.25</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="34">
         <f>COUNTIFS($A$2:$J$11,"&gt;="&amp;P10,$A$2:$J$11,"&lt;="&amp;Q10)</f>
         <v>7</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="32">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="31">
         <f t="shared" si="2"/>
         <v>1.5555555555555557E-2</v>
       </c>
@@ -3502,9 +3503,17 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="35" t="s">
         <v>34</v>
       </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="M14" s="13" t="s">
         <v>18</v>
       </c>
@@ -3568,7 +3577,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="16">
-        <f t="shared" ref="C17:C22" si="6">(A17+B17)/2</f>
+        <f t="shared" ref="C17:C23" si="6">(A17+B17)/2</f>
         <v>22.75</v>
       </c>
       <c r="D17" s="18">
@@ -3685,6 +3694,12 @@
       <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <f>COUNT(A16:A22)</f>
+        <v>7</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="3">
         <f>SUM(D16:D22)</f>
         <v>100</v>
@@ -4042,6 +4057,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="24">
+        <f>A23-2-1</f>
         <v>4</v>
       </c>
       <c r="F37" s="23"/>
@@ -4054,9 +4070,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
